--- a/Excel/class3final.xlsx
+++ b/Excel/class3final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WORK/Personal/xlsx_to_vcf/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A89CC-A20D-BF41-B753-C335E9210858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -15,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>3-A</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
     <t>Harpreet Singh</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
     <t>Vaishnavi Sani</t>
   </si>
   <si>
-    <t>Phone  number</t>
-  </si>
-  <si>
     <t>Ashankh vaish</t>
   </si>
   <si>
@@ -222,13 +222,16 @@
   </si>
   <si>
     <t>First</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,12 +243,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,13 +351,21 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +444,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +496,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,429 +689,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="5">
         <v>8533066485</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>8077235711</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>9897671111</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>8077014298</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>9759453697</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>9412480189</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>9760766369</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>9759876821</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>9760795424</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>9997223742</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>9258386100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
         <v>9927414104</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>6395976016</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>8869833836</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5">
         <v>8279755227</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6">
         <v>9756184682</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6">
         <v>9359387776</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6">
         <v>9368440740</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6">
         <v>9012713066</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6">
         <v>8445870393</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6">
         <v>8650660296</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6">
         <v>9359895696</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6">
         <v>9758001090</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6">
         <v>9997454147</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6">
         <v>9012035736</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6">
         <v>7017452117</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6">
         <v>8433192495</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7">
         <v>9720040948</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>7037346880</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>7017340948</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <v>8449824400</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="8"/>
     </row>
@@ -1072,377 +1121,377 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="11">
         <v>7599122141</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10">
         <v>8077130997</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10">
         <v>8755528944</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>8077011170</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10">
         <v>9568703333</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10">
         <v>7417062598</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10">
         <v>9629126909</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10">
         <v>8791648958</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10">
         <v>9007704509</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10">
         <v>8307771769</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10">
         <v>8630547706</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10">
         <v>8077139014</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10">
         <v>6396791052</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="13">
         <v>8979495032</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="13">
         <v>9639257255</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="13">
         <v>7500550022</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="13">
         <v>9027594374</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="13">
         <v>8791648958</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>9675502322</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="13">
         <v>9457047007</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13">
         <v>9897510669</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="13">
         <v>7217429893</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13">
         <v>9319204234</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="14">
         <v>9997664479</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="13">
         <v>9058968310</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="13">
         <v>8077862709</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="13">
         <v>9412359168</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="13">
         <v>8006168328</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="13">
         <v>9548476670</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13">
         <v>9759937599</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="13">
         <v>9417011150</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="13">
         <v>9997678027</v>
